--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\RestAssuredProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F37000A-54B2-40A3-A38E-2D04BB5E886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C827E63-FE2D-42BE-B0F5-0C5571D4533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelData" sheetId="1" r:id="rId1"/>
+    <sheet name="PetData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>UserID</t>
   </si>
@@ -67,13 +68,67 @@
   </si>
   <si>
     <t>r1234tx</t>
+  </si>
+  <si>
+    <t>tagName</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>photoUrl</t>
+  </si>
+  <si>
+    <t>tagId</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Dogs</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>https://example.com/bruno.jpg</t>
+  </si>
+  <si>
+    <t>Bulldog</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Kitty</t>
+  </si>
+  <si>
+    <t>https://example.com/kitty.jpg</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>sold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +140,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,9 +174,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -476,4 +548,106 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B39968C-37A8-45B1-A0B2-91C53C908550}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>501</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3001</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>502</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3002</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{73FAA3E7-0586-4A6D-B53C-95C904714F9A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{1A9A3EB2-1F51-4603-BA4E-F22C9F0DD366}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\RestAssuredProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C827E63-FE2D-42BE-B0F5-0C5571D4533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225160E9-5DCC-43D0-AF07-C9D97AEC2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\RestAssuredProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225160E9-5DCC-43D0-AF07-C9D97AEC2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7CE41-B0D4-465B-92FB-C82EF9437F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\RestAssuredProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7CE41-B0D4-465B-92FB-C82EF9437F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECCA58B-65F0-46BD-944F-411BF0DB3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelData" sheetId="1" r:id="rId1"/>
     <sheet name="PetData" sheetId="2" r:id="rId2"/>
+    <sheet name="StoreData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>UserID</t>
   </si>
@@ -122,6 +123,24 @@
   </si>
   <si>
     <t>sold</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>petId</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>not placed</t>
   </si>
 </sst>
 </file>
@@ -554,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B39968C-37A8-45B1-A0B2-91C53C908550}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -650,4 +669,74 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD16E2A-312C-4BCB-B39B-9BEE0F3462C2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>